--- a/resource/eor/EORSpeakingScoreImportTemplate.xlsx
+++ b/resource/eor/EORSpeakingScoreImportTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -40,19 +40,17 @@
   </si>
   <si>
     <t>Test Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Region</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">S-West Region </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">North Region </t>
+  </si>
+  <si>
+    <t>005774</t>
   </si>
 </sst>
 </file>
@@ -60,15 +58,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -78,7 +82,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,57 +307,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -394,7 +399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,17 +688,18 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="18.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -722,37 +728,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10">
+        <v>42760</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="8">
-        <v>777777</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="15">
+        <v>990801</v>
+      </c>
+      <c r="E2" s="7">
         <v>6</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>6</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>6</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>6</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>3</formula>
@@ -785,9 +791,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -798,9 +804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>